--- a/data/COMBINED_data/starbucks.xlsx
+++ b/data/COMBINED_data/starbucks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tammy/Documents/CWRU/HPC/Predicting-Stock-Price/data/COMBINED_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47074528-DC53-5F4B-9712-E27A049FE00D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E54C99-3E97-6643-B0E3-017C2D32B4D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="428">
   <si>
     <t>comments</t>
   </si>
@@ -1238,6 +1238,72 @@
   </si>
   <si>
     <t>['I have all but three!!!!', '', '', "Can't wait to experience our first Xmas frapuccino in our favorite Starbucks next to the beach ", '@ellabella_2580 ', '', '', '\nI want it very much', '', ' Great', 'If there‚Äôs a new location open my up in my city and I‚Äôm one of the first to go, do I get anything?', 'Nobody cares', 'I sent you a DM @starbucks', 'Bring the old Starbucks for life back pls!!!!!', 'Had a Christmas Blend Coffee  @starbucks today it was perfect love it ', 'snowball fights and matching PJs ']</t>
+  </si>
+  <si>
+    <t>['@fatmaonee  We love sharing all your favorites with you!', '@starbucks Thank you ', 'I LOVE STARBUCKS!!! On my way now!!', '@tony_b_aloney_  Thanks for stopping by! ', 'Who would want to drink a chai latte with crunchy leaves?! Yikes!', 'The best drink ', 'Chai means tea. Chai tea=Tea tea', '@mugart.store chai means tea  Chai tea=tea tea', "@m.a.r._majahuita chai means tea bro, you're saying tea tea "]</t>
+  </si>
+  <si>
+    <t>['Is there alcohol on it,right? ', 'This is cute!!!!! ', 'Sign me up ', '@abo_abdullah_saleh the end of what?', 'Yummy', 'Yummy', '@shorookj bruh']</t>
+  </si>
+  <si>
+    <t>['Yes!', '@dr_rehab_hassan_derma yes!!', '@nizahamo Yes!!', '@tony_b_aloney_ may be for u but me No', 'Creative and caffinated: my favorite combination!', 'No pumpkin spice its gross', 'I like always to get a pumpkin spice latte', '', ' spice latte, ', 'Love this .']</t>
+  </si>
+  <si>
+    <t>['', '@karlieejohnsonn You‚Äôre a dummy', '@sarah_belle85 Misogynistic', '@cpcorbin2021 actually no, we have them til january', '@miatakit Good to know ', 'Girl math ', '@the_return_of_the_cat today i went to the starbucks in south philly and it was packed as usual‚Ä¶']</t>
+  </si>
+  <si>
+    <t>['Bad to worse ']</t>
+  </si>
+  <si>
+    <t>['Red cups are great. HOWEVER‚Äî&gt; @starbucks a delightful experience turned undelightful when I saw not once, but twice today, dogs inside the Germantown, MD store. Yes, and one had its paws on the counter.\nAfter a second entry of dogs, (2 dogs) I was completely done; I left. \nThis Starbucks is a busy place. I‚Äôm sure maintaining a healthy environment means a lot. \nTherefore, visitors need to know animals have their place and their place is not in the store. #starbucks', 'NO', 'I like this', '@braboaldair ', 'Awesome ', '@skylermcdermott lol. Yes', '@luz19762023  Which delicious drink is your festive favorite?', 'Cool', '@starbucks after all our talk, I didn‚Äôt get the cup  depressed', '', 'No Hot Chocolate', 'Hope to see you all holiday season, bestie.', 'Looks so yummy huh? ', '@teebabyluv86 they discontinued my toasted white chocolate @starbucks how could you I‚Äôm still mad', 'bring starbucks back to russia']</t>
+  </si>
+  <si>
+    <t>['@starbucks it‚Äôs ok - over a week ago and over gotten at least a dozen drinks since then, so I don‚Äôt remember now‚Ä¶ but it seemed like a waste of money :(', 'Boooooo @starbucks', 'Your Iced Gingerbread latte does not show app in the app under the holiday drinks. Only the hot one does, FYI.', ' my favorite time of the year!', '@rykeeeeeeeer  Will you be sipping through this magical season with us? ', '@starbucks absolutely!!!', '@rykeeeeeeeer ', '', 'BRING BACK IRISH CREAM CB please ', '@starbucks', 'Not buying @starbucks', '', 'Where‚Äôs the Irish cream?  It released previous years with the holiday ones too??']</t>
+  </si>
+  <si>
+    <t>['I‚Äôm WAITING for Pistachio Latte. NOT patiently!!!', 'Its good but its better substituting Chestnut Praline for the Gingerbread. Idea for next year! ', '@linnette_eats The one I had was awesome so I can relate. A lot of weird people posting in these comments. Mostly trolls lol', '', 'So good! Mine tasted more like Chai but I still drank it lol', '@thekalenallen add white mocha to it ', 'I wish they served the way is on the picture because is more  or the cup is not full..', 'My drink tasted like a Gingerbread cookie! Going to get another one today! Hi5@starbucks', "We're happy to hear you enjoyed it, friend!", '', 'It was sooooo good', "We're smiling from ear to ear! "]</t>
+  </si>
+  <si>
+    <t>['', 'What about the gen z', '@nick_melillo27 Millennials order right too I get iced sometimes nothing wrong with that Gen Zers think they wanna correct the millennials with Starbucks orders']</t>
+  </si>
+  <si>
+    <t>['#free', '', 'Yum', 'The chestnut is Dairy free?']</t>
+  </si>
+  <si>
+    <t>["I'm sorry this happened to u girl, Starbucks are awful fr", 'Tipuuuuuu bodoh', 'Amazing ', '@fahada_hamim ']</t>
+  </si>
+  <si>
+    <t>['@itonly_aliner  Cheers to your yummy favorite.', '@kimberlyley17', '@sopgiee yeah I don‚Äôt understand how people don‚Äôt get that lol', 'Yum', 'oh']</t>
+  </si>
+  <si>
+    <t>['das wel warm h√®, ik wil ijs !', '@stef_van_loo ge kunt dienen ook koud vragen e', 'If you‚Äôre broke, just say so ', 'I need to try this', '@lucycoatestrewhitt ', "@martina.fulcoo  We're ready to sip the delicious Caramel Brul√©e Latte with you! ", 'It was so bad this year I don‚Äôt know why', 'Too sweet', "@starbucks why didn't you all make the ceramic ornaments this year for all states? I'm looking for the ceramic ones here in El Paso and can't find them anywhere.  Is the plastic keychain only for this year? I hope so.  I have an entire collection of ceramic ornaments from 2014 and it's sad to see I won't have one for this year.", 'Make this baby permanent ! Or give us the syrup ', '#favourite', 'Yum']</t>
+  </si>
+  <si>
+    <t>['As a ginger fanatic I have to try this ', "@sassykickinin  We hope you'll love it.", '', 'what is an oleato']</t>
+  </si>
+  <si>
+    <t>['@mimi_topaz i like it hot with whip cream! i mainly like iced drinks but this one hot is so good', '@karissa.isabel7 they prob mean like it‚Äôs back in the regular menu,', 'yay ! ', 'Not in Germany   @starbucks', 'Delicious ', 'Hello social media person, please consider why all these people are criticizing the ethics of this company before removing this post too. Might there be something to it? Thank you!', '', 'Yay', '@tojal.coffee ', 'Happy Hanukkah Starbucks', 'My favorite drink during holiday', '', 'Cheers to your holiday favorite!', 'Please make this in the NL! ', 'oh', 'uh oh', '@maria_paula_wilson  you need free Gift card Starbucks talk to me', '', '@catcecita ', '@jake_pulos yaaayy! ', 'Very nice!', '@manmanfattah  Glad you liked it!', 'Where can I get these  Decorations for the cards?']</t>
+  </si>
+  <si>
+    <t>['On my way to grab one', 'why are you being so rude?? she literally just said that locations in seattle are closed there‚Äôs no reason for you talk like that to her', 'i use mine for school every day!!!', 'can we buy these? ', '@starbucks I missed it ugh  guess I have to wait till nnext cut year', 'En Mexico se adelantan demasiado! 10 nov!!!', 'MERRY CHIRTMAS', 'oh']</t>
+  </si>
+  <si>
+    <t>['', '', 'Tasty', 'Y‚Äôall suck and u know it', "@mizukigamer2002  Glad you're enjoying it.", '@gracevbosch5  So much love for this festive sip!', 'Does this actually taste like a sugar cookie']</t>
+  </si>
+  <si>
+    <t>['ƒ∞ love drinks with whipped cream on the top', '@mizukigamer2002  It makes it so special! ', '@alondra_p3ch  i missed it this year ', '', '', '']</t>
+  </si>
+  <si>
+    <t>['@sunshine_and_lupine ', 'Starbucks isn‚Äôt it time for the Christmas game?  We anxiously await. ', 'Starbucks For Life starts today!  Earn game plays by completing challenges at www.starbucksforlife.com', ' cute']</t>
+  </si>
+  <si>
+    <t>['See you soon Vicki!!! God willing  Dec 1 ~ going to SSC', 'I HOPE MORE PEOPLE STOP DRINKING STARBUCKS', 'Vicky', '@kiimberyly bruh', '@sannamarin']</t>
+  </si>
+  <si>
+    <t>['@dritan_cafe ', 'THIS IS SO CUTE', '@luisafertiradog  We hope you give this cute and delicious drink a try! ', 'my favorite', '@emerson.sours  Such a yummy favorite, bestie! ', '@audrey_dezur  Cheers to your festive favorite!', 'New holiday favorite!! ', 'The gingerbread chai is amazing! Please keep it!', "@huskeytaylor  We're happy you're enjoying this sip of the season!", '@the_mrsnewbury  Cheers to new holiday favorites! ', 'The Irish cream was my main winter drink  heard it‚Äôs not on the winter menu this year', 'Does dis have caffeine', 'I love it', '@silvereyes0901 I did this other day added 3 pumps to my venti', '@weallwegot86  Hi there! Yes, this beverage is caffeinated with Chai.']</t>
+  </si>
+  <si>
+    <t>['@mustafa_ozkaymak1 ', '@hailadams ', '@beauty.in.ordinarythings ', '@jcasper99 ', 'Makes me think of my childhood ', 'So cute ', '@sami.kakish.10  Totally! ', 'Drove all the way to town just to go to Starbucks for yay day to use some rewards point points and then the entire store in the drive-through was closed. Not even the mobile order was open. Extremely disappointed. Tried to talk to someone on chat for over an hour and the representatives kept disconnecting me. After 25+ years of Starbucks I‚Äôm quitting them once I use up my points &amp; $. I‚Äôm done with @starbucks!', '', 'Clowns']</t>
   </si>
 </sst>
 </file>
@@ -1601,10 +1667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B207"/>
+  <dimension ref="A1:B229"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="D210" sqref="D210"/>
+      <selection activeCell="E199" sqref="E199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3206,59 +3272,235 @@
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
+        <v>45224</v>
+      </c>
+      <c r="B201" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" s="2">
+        <v>45225</v>
+      </c>
+      <c r="B202" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" s="2">
+        <v>45226</v>
+      </c>
+      <c r="B203" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" s="2">
+        <v>45229</v>
+      </c>
+      <c r="B204" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" s="2">
+        <v>45230</v>
+      </c>
+      <c r="B205" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" s="2">
+        <v>45231</v>
+      </c>
+      <c r="B206" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" s="2">
+        <v>45232</v>
+      </c>
+      <c r="B207" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" s="2">
+        <v>45233</v>
+      </c>
+      <c r="B208" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" s="2">
+        <v>45234</v>
+      </c>
+      <c r="B209" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" s="2">
+        <v>45236</v>
+      </c>
+      <c r="B210" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" s="2">
+        <v>45237</v>
+      </c>
+      <c r="B211" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" s="2">
+        <v>45238</v>
+      </c>
+      <c r="B212" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" s="2">
+        <v>45240</v>
+      </c>
+      <c r="B213" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" s="2">
+        <v>45243</v>
+      </c>
+      <c r="B214" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" s="2">
+        <v>45244</v>
+      </c>
+      <c r="B215" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" s="2">
+        <v>45245</v>
+      </c>
+      <c r="B216" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" s="2">
+        <v>45246</v>
+      </c>
+      <c r="B217" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" s="2">
+        <v>45247</v>
+      </c>
+      <c r="B218" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" s="2">
+        <v>45250</v>
+      </c>
+      <c r="B219" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" s="2">
+        <v>45251</v>
+      </c>
+      <c r="B220" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" s="2">
+        <v>45252</v>
+      </c>
+      <c r="B221" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" s="2">
+        <v>45254</v>
+      </c>
+      <c r="B222" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" s="2">
         <v>45255</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B223" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A202" s="2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" s="2">
         <v>45257</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B224" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A203" s="2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" s="2">
         <v>45258</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B225" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A204" s="2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" s="2">
         <v>45259</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B226" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A205" s="2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" s="2">
         <v>45260</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B227" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A206" s="2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" s="2">
         <v>45261</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B228" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A207" s="2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" s="2">
         <v>45262</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B229" t="s">
         <v>405</v>
       </c>
     </row>

--- a/data/COMBINED_data/starbucks.xlsx
+++ b/data/COMBINED_data/starbucks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tammy/Documents/CWRU/HPC/Predicting-Stock-Price/data/COMBINED_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E54C99-3E97-6643-B0E3-017C2D32B4D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6591DA-F468-404D-8BFC-592509513418}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="395">
   <si>
     <t>comments</t>
   </si>
@@ -31,18 +31,6 @@
     <t>['Byeeeee', "@steelenutrition_dietitian  We LOVE to hear that you've found a delicious sip to enjoy this fall! ", '@honeyxbees lies I worked at the busiest location in NYC history and they made 180k per day max', "@starbucks I guess you would hate for me to get a drink....I told you the app wasn't working a month ago and still no help", '@jigisupbk 1m+ sales for the year for us is not unheard of. We’re located inside a target at a mall so the traffic is insane. Also in a city right by the border', '@dutchbroscoffee has better drinks ', 'Everyone will boycott il', 'كسم استار باكس']</t>
   </si>
   <si>
-    <t>2023-10-23</t>
-  </si>
-  <si>
-    <t>['', '', 'Hey starbucks  we can do you your coffee at home  chill and have a nice day ', '', '', 'Bubye!!!', 'Bye bye', '']</t>
-  </si>
-  <si>
-    <t>2023-10-24</t>
-  </si>
-  <si>
-    <t>['', '', 'PSL ', '@hailadams  We hope you enjoyed every sip!', 'See you today, I’m on my way @starbucks ', '', '@hailadams  We always look forward to your visits, friend!', 'It’s my pleasure @starbucks ', '', 'I LOVE starbucks!! Caramel brullée is coming VERY soon!! ', '@crossoverusa just wanted to say hope your father is ok', 'Delish!', '@kiara_makeup  Cheers to the fall sip that won your heart.', 'Didnt their recipes get leaked recently?', 'Best Starbucks ad of all time! Tried this drink and it’s SO GOOD ', 'Omg @catpartypetportraits how cuuuuuuuute', 'You should go as @b.netanyahu ', 'Me ready for their Christmas menu already!!  my Christmas freak self has already been unleashed!', '@starbucks so you do see comments but choose to be racist :)', 'bye', '', '', 'Your sales are going down ', "@hannah.overstreet  It's so purrfect! ", 'Free palastine ', '', '', 'Your company is a Halloween costume all year round, a devil.']</t>
-  </si>
-  <si>
     <t>2023-10-18</t>
   </si>
   <si>
@@ -1217,93 +1205,6 @@
   </si>
   <si>
     <t>['I need my daily iced brown sugar oatmilk shaken espresso', 'So real', 'So glad it’s not just me', 'ugh same', 'I would love to see a tiktok about the most ordered egg bite by city or state!!!!', 'Me fr', 'mocha crumble frappe ', 'Me sometimes', 'Make it a chai tea latte! ', 'Starbucks PLEASE MAKE A BOTTLED MANGO DF WITH LEMONADE', 'Omg she is so cute', 'Can you make a Melanie Martinez drink Day 1 of asking', 'Iced coffee heals all ', 'Iced coffee = day made', '@Starbucks can you pls come to Perth Australia..', 'how do we get a hold of the blackpink stock in the uk', 'Same', 'Same! It’s the best realization ', 'Me yesterday and started my day off this morning with coffee from Starbucks ', 'A little Serotonin boost', 'SAME', 'You know what I need, I need a vanilla bean.', 'Starbucks is my life', '@Lauren Norris ABSOLUTELY needs a brand deal like asap', 'Yessss!!! I’m trying to get through my second half of work, and struggling. But all will be better once I’m off and in the Starbucks Drive thru lol ', 'Hi', "I HAVE A SAD LIFE. I'VE NEVER HAD STARBUCKS IN MY LIFE", 'SO TRUE', 'I just had Starbucks like a hour ago', 'Plzzz resppoonnnddd !! I love u ', '@Lauren Norris', '@Kellenkorb14 @carly @paige doc', '', 'Coffee plis :(', '@Salma Sanchez', '@All the Love, Lena wir', 'bring back raspberry syrup plz i need it ', 'Love iced coffee. Know what makes it better? pumpkin cream cold foam ', 'I’m begging, please bring back the Spicy Chorizo sandwich that was my lunch everyday for a year straight lol', 'I love you', 'Literally', 'Nice', 'X78 There is a tissue promotion today. Just download TEMU shopping with my code and get a big coupon for 100%!my code is afh90116', 'Are u ever bringing back the mocha frap light ? I’m type 2 diabetic :(', '@Starbucks why are you throwing out all summer cups in the dumpster this week instead of donating to organizations in need?', '*refresher', 'She’s the og white girl', 'All you need is Starbucks to let go of any negative energy']</t>
-  </si>
-  <si>
-    <t>["@summer_time256  We'll be here when you have the opportunity to visit!", '@avixdior  Cheers! ', "@targetfairyfinds  It's the perfect holiday sip!", '@amber_the_agent_carolinas  Our U.S. Starbucks Reserve locations are in Seattle, New York, and Chicago. You can find them all at www.starbucksreserve.com. ', '@starbucks we need one in the south! #carolinas', '@champagneinfused  We appreciate that! ', '@hairby_niablack  While many Starbucks locations serve Starbucks Reserve coffee, this beverage is only available at our Starbucks Reserve locations in Seattle, New York, and Chicago. You can find them on www.starbucksreserve.com.', '@vinccigueno  While we do have Starbucks Reserve locations in Shanghai, Tokyo, and Milan, menus will vary. ', '@emilybjolley  Agreed!', '@itstheavarose  Can confirm! ', '@ellenburling  Sorry, no. Our alcoholic beverages can only be enjoyed in our Starbucks Reserve locations.', '@topdollah_  You can enjoy this at our Starbucks Reserve locations in Seattle, Chicago, and New York.', '@mizsveronicavanity  Our U.S. Starbucks Reserve locations are in Seattle, New York, and Chicago at this time.', '@eviebubs  You can find our seasonal menus at www.starbucksreserve.com. ', '@rstewie3  You can use your partner discount at Starbucks Reserve locations, excluding alcohol and some coffee and merchandise.', '@starbucks ', 'Yummy I had my Starbucks today, so my life is good ', 'A vodka or gin martini?', '@starbucks DM‚Äôd you Sunday. Still haven‚Äôt heard back from you.', 'Look @echuk8 ', '@starbucks said we had to try their Peppermint Mocha Espresso Martini, so we made it with Duke &amp; Dame Salted Caramel Whiskey. It‚Äôs delicious indeed!', '@starbucks We just did &amp; agree! Check out our latest reel with our version of the recipe! ', "Is this all starbucks? I'm in!", '@ronifaith_ hahaha, I quite a few who will!', '@velazqueztheresa  Hi there! The Peppermint Mocha Espresso Martini is exclusively available at Starbucks Reserve Roasteries.', '@marinelwood  Thanks for sipping with us!', 'Hell yes!', 'Drove all the way to town just to go to Starbucks for yay day to use some rewards point points and then the entire store in the drive-through was closed. Not even the mobile order was open. Extremely disappointed. Tried to talk to someone on chat for over an hour and the representatives kept disconnecting me. After 25+ years of Starbucks I‚Äôm quitting them once I use up my points &amp; $', "@ronifaith_ there is also the tiny problem of Starbucks funding g‚Ç¨nocide in the Middle East but it's ok, those are brown children so gives a f***", '@summer_time256 and 7000 b0mbed children ', '@protihex I‚Äôll take one when I want to', '@girlkatlover drinking is a responsible thing', '@ronifaith_ given those bad boys are $17 you can be sure I‚Äôll enjoy them responsibly and down maybe one lol']</t>
-  </si>
-  <si>
-    <t>['', 'I miss sugar free cinnamon dolce!!!!', '@mystic_75176 oh yum! Good idea!', '@starbucks awesome thumbs up let‚Äôs go', 'Cheers! ', '@nickcheung95 ', '@z0ndr0 or blending it into the milk for iced drinks, so good', '@hallowench I miss that also', 'i love her', 'i love an iced oat milk chai with cold foam and cinnamon on top', 'Tastes like water with a hint of sugar ', 'they ALWAYS forget the sprinkles', 'Literally crack ', "@strunc0vaaa___  We're glad you love it, friend! ", '@starbucks ', 'Cheers to your yummy favorite, bestie! ', "@chrissy.kuznetsova  We're happy you've found your holiday special treat! ", '@taralovesmusic1  Such a yummy favorite to enjoy the season! ', '@strunc0vaaa___ Cheers! ', '@starbucks ', 'My favorite I order with non fat milk it‚Äôs yummy hot too', 'my fave christmas drink ', '@michelequick6 ', 'It‚Äôs pretty, okay', 'I love this drink so much and nobody around me gets it ', 'this w soy milk goes so hard', '@bklyn777 it lacked flavor to me and I got it with oat milk', '', '@moonshine.monaa  You have great taste in holiday favorites!', '@kimannmiller  So delish!', 'Eh my least favorite out of the other holiday drinks', '@n_smith398  The Iced Sugar Cookie Almondmilk Latte is a tasty twist on a classic holiday treat.', '@keanu.weaves  We like your sip style!', '@emosquishmallow yep', 'i got it for funzies and it was so sweet i almost gagged', '@busmariska wanneer gaan we weer?', 'Soon good']</t>
-  </si>
-  <si>
-    <t>['@haleysundlie oh that makes so much sense like I ordered gingerbread chai with regular milk instead of oat milk and they were like ‚Äúare you sure you want that!‚Äù', '@mollyobryan_ it was the BEST FLAVOR', 'Is toasted white chocolate coming back???', 'I absolutely LOVE the gingerbread chai and that apple crisp drink you had!!!', "@heather_fallen_angel_  We're happy you're enjoying these delicious favorites!", 'please come out with a non dairy cold foam option!!!', 'Can we please get a non dairy cold foam?', 'Does anyone put cold foam on anything other than coffee?', 'Put the oatmilk foam on', 'Peppermint ', '@starbucks where is the Irish cr√®me cold brew', '@catenglebert please help please bring it back I‚Äôm begging you', '@michellefeb68 sadly no. I‚Äôm also upset about the Irish cream', 'My love coffee but very very love ice_cream Starbucks best coffee ', 'Pic a√ß oc', '']</t>
-  </si>
-  <si>
-    <t>['I just wish mobile orders weren‚Äôt pushed to the front of the line! I‚Äôve literally ordered my drink in person, seen a person walk in and mobile order because the line is so long and their drink came up well before mine!', 'It‚Äôs seeming like you don‚Äôt get the free daily shake on starbs for life this year. That‚Äôs pretty lame to me. I get you want us to make a purchase but every day just for a free shake seems sus', 'Maddie, regretfully, we are unable to locate your message. Please get in touch using a different method through our Contact Us page (https://sbux.co/3uW8Bbs)!', '', '@clarissagarcxa  Hi! That drink is only available in Starbucks stores in Japan.', "Hello, we're so sorry to hear that you're unable to play the Starbucks for Life game. Could you please send us a DM with more information? We're happy to look into this. Thank you.", '', 'I need help with Starbucks for life.', 'Is the game working yet?', "Hi there, We're so sorry to hear that your wait time at your local store was long! We totally understand your concern and are happy to see how we can help. To get us started can you please send us a DM with the approximate date and time of your visit and address of the store you visited? Thanks!", '', 'Hello, we\'re sorry to hear about this miscommunication and appreciate you reaching out. To receive your free daily plays, you will need to scroll to the bottom of the Starbucks for Life page and select the "To enter without making a purchase" link. Once the form has been filled out entirely, those plays will be awarded. We hope this helps!', 'How do you think it\'s "easier" that you have to choose between mobile ordering or ordering in person if you want the 25 stars for using your own cup?!', '', '@starbucks oh really?! Ok ill check it out thanks!!', 'The game doesn‚Äôt work for me ', 'Fix your Starbucks for Life. It doesn‚Äôt work this year. I clicked on the no purchase necessary, entered info several times &amp; still won‚Äôt get one chance to slake globe.  Very annoying', 'Hello, Starbucks for Life can be played at www.starbucksforlife.com.', "Hello, we're sorry to hear that you're having trouble with your Starbucks for Life game. We understand how this would be concerning and would be happy to look into this for you. To do this, can you please DM us with a few more details? Thank you!", '@starbucks just DM u', "@_miranduhhhh__  Hi there, We're so sorry to hear that you're experiencing issues with the Starbucks for Life Game! We'd be happy to look into that issue for you. To get us started can you please send us a DM with the details of the challenge you are encountering? Thank you!", 'Hello, we are sorry to hear about this and appreciate you reaching out. For the Starbucks for Life Game, there are no plays added daily automatically.  To receive your free daily plays, you will need to scroll to the bottom of the Starbucks for Life page and select the "To enter without making a purchase" click here. Once the form has been filled out entirely, you will receive an email with a link in it that you will need to click on to claim your plays and then those plays will be awarded. If you still need assistance please DM us and we will be happy to help!', "The game isn't working "]</t>
-  </si>
-  <si>
-    <t>['@sarahneversarbear @daijia_candy23', 'Looks good', '', '@nicoleacamus my app didn‚Äôt work all day.  Error kept coming up.  So I didn‚Äôt even bother ', 'Why is the Starbucks for life not working :( I‚Äôve missed out on yesterday &amp; now again it‚Äôs still not working', '', "Hello, we're sorry to hear about this happening with your coupon! We understand your concern and would be happy to look into this for you. To get started, can you please DM us with the email address that is associated with your Starbucks Rewards account? Thanks!", "We hope you're able to treat yourself soon!", 'Hello, we are so sorry to hear that you are having a hard time with your Starbucks for Life Game! We understand your concerns. We recommend making sure that your device is all up to date and that you have JavaScript enabled. If you still have any questions or concerns send us a DM with more details. Thank you!', '', '', '', 'Lovely drink ', '@anastasianpauly  Mmm! What did you think of the Caramel Brul√©e Latte? ', 'Hello, we are sorry to hear that you are unable to play the Holiday run game on Starbucks for Life. We would be disappointed if that happened to us. We would like to look into this. Could you please send us a DM with a screenshot of the error you receive? Thank you.', 'Ah, I was in Nyc, recently &amp; I got this, except Iced &amp; it‚Äôs basically like another version of a Frappuccino.  Totally recommend it, this way too! ', '@alehhkins  Cheers to absolute favorites!', '@morganagolli97  Cheers to every amazing sip!', '@my.new.england  Cheers to your favorite festive sip!', '@tynelovee ', 'Something about that first sip of caramel br√ªl√©e latte just hit different for me today. Thank you @starbucks for giving me a good start to my day ', '', '@timothykohtk Honestly it‚Äôs one of the best flavors they carry. Many of us have been asking for it to be a year round flavor. Pretty much the only time I get a Starbucks now. ', 'Yummmm!!!', 'Merry Christmas ', 'Gonna try it out', 'Hello, we are so sorry to hear that you are having a hard time with your Starbucks for Life Game! We understand your concerns. We recommend making sure that your device is all up to date and that you have JavaScript enabled. If you still have any questions or concerns send us a DM with more details. Thank you!', '@bijayinisarkar  Let us know if you love it as much a we do! ', '@cianaisagemini  It tastes THAT delicious too! ', '@peace_love_light_always  It truly is! ', "@starbucks I'm always ready to wait", '', '@starbucks delicious', '', '@starbucks I sent you a DM 2 days ago with no response. Still no response or plays unfortunately.', 'We are sorry to hear this and we are sorry that you have not received any response. For the Starbucks for Life Game, there are no plays added daily automatically.  To receive your free daily plays, you will need to scroll to the bottom of the Starbucks for Life page and select the "To enter without making a purchase" click here. Once the form has been filled out entirely, you will receive an email with a link in it that you will need to click on to claim your plays then those plays will be awarded. If you would please try to DM us again with more details if this does not help! Thank you!', '', 'I misss the white chocolate mocha. I was so looking forward to that.', 'happy christmas']</t>
-  </si>
-  <si>
-    <t>['@starbucks iced sugarcookie almond milk latte', 'Iced Gingerbread Oatmilk Chai is everything!!! ', 'They look delicious', "@haroun___1  Wait 'til you see them in person!", "@happlause  That's a tasty choice! ", "@theresalynch007  We'd love for you to stop by for a cup!", "@rosannaticozzi  We're happy you've found your go-to sip style!", '@starbucks i always do...will sure do. ', 'See you soon! ', '', 'I‚Äôve been turning the sugar cookie drink into a Frappuccino &amp; it is DELICIOUS! I‚Äôm obsessed!!', 'Starbucks ', "@majesty.sl  We're thrilled you've found your favorite! ", 'Um....also, an added disclaimer to the Run game ... If you have ADHD and highly caffeinated...will mess your world up! Lol. I was holding my breathing, kicking my leg every time I jumped and now my heart rate is up like I actually ran and jumped those fire hydrants! Lol. Fun times! ', 'My favorite holidays Drinks are from u guys are Caramel Br√ªl√©e Frappuccino and ice Gingerbread and cookie peppermint Mocha Frappuccino these are my favorites from the Holiday drinks ', "I'd be down to try but I am not paying $7 for a coffee. Sorry but the cost to add flavors are not worth it. Like just adding peppermint cold brew flavor to the chocolate is $1.25. I've been told some were up to $2.5 or more to make based on the advertised drinks.\n\nFor those that enjoy it, please drink it up! I'll stick to the normal stuff for now.", 'Had the sugar cookie one today-get it with its milk and whipped cream on top', 'Do you have a branch in Turkey?', 'pink', '', '@starbucks in line as we speak!', '@doublev8 you have to scroll to the bottom where it says enter without making a purchase. You get 2 daily and you can do all the other challenges that way as well without making a purchase', '@icymatchamochi you get 2 free daily plays. You have to scroll to the bottom and hit enter without making a purchase', '@jenn_vannucci pls boykott starbucks.', '@starbucks Thank you for messageMy favorite is the Starbucks latte with non-fat milk. I love starbucks', '@sydneyschubring  We‚Äôre working on getting Starbucks For Life back into the Starbucks app, in the meantime you can still play at starbucksforlife.com!', '@piipiipii8pii  Thanks for the love! ', '@starbucks oh yeah that‚Äôs tasty ', '@starbucks Thank you too Great&amp;wonderful Dear Starbucks', 'Where is Irish cream @starbucks  it‚Äôs always my go to in December I have screen shots of my Starbucks with the signs up every year ‚Ä¶ please say it‚Äôs coming back', '@rmore5 cold foam only works with 2% and heavy cream, it won‚Äôt work will non dairy', '@caity.jane99 wrong there is dairy free whipping cream and oat milk works just fine.', '@_88sandheartbreaks_  Cheers to a new tasty sip to enjoy! ', '@starbucks thank you !!', 'Would the peppermint chocolate cold foam be good on an iced chai??', 'Stop selling cows milk we aren‚Äôt them over half of us are lactose intolerant the environmental issues and especially the cows suffer. There‚Äôs plenty of alternatives', '@sydneyschubring ', 'She‚Äôs so beautiful ', '@rmore5 you can always go in person and ask for an alternative milk foam, like with the iced ginger bread oat milk chai, it‚Äôs an oat milk froth. how ever you‚Äôre not going to get the same smooth VSC with out the 2% and the heavy cream. it just doesn‚Äôt work like that. it‚Äôs a special request you need to make in person !', '@bbadbeetle the oat milk legit tastes the same lol ', '@rmore5 girl idk how to help you , i literally work at starbucks and i‚Äôm trying to help you. all i‚Äôm saying is you need to make this request in person ! starbucks doesn‚Äôt carry dairy free whipping cream. you can also try and make it at home and add it to your lattes but that‚Äôs as much as i can help i‚Äôm sorry', '@bbadbeetle and all I was asking was when they have the customization in the app lol literally know how to make it at home already hence the responses', '@rmore5 the app offers a lot of customization ! however you need to go irl for that specific request, the baristas will be more than happy to help you ! u understand you‚Äôre frustrated abt not being able to mobile order but yeah i hope that clears it up !', '@bbadbeetle that was common knowledge there boss', 'It‚Äôs a mixture of heavy cream, 2 percent milk, and vanilla', '@basicbitchoutlet I‚Äôm aware. I want it with milk only -no cream', '@kayleigh.n.langston yeah but it comes out really thin and frothy', 'oh ok my fault', 'Can you make a cold foam out of oatmilk or almond milk?', 'then it‚Äôs not cold foam‚Ä¶?', '@mikayla.kelvington sure it is I get on my cappuccino macchiato and iced macchiatos all the time on the app. It‚Äôs just not an available option on any other drinks on the app, they only offer cream version. If you ask in Store they will give to you (i just like to order ahead on app). You can make cold foam from any type of milk ', '@basicbitchoutlet ok thanks!', '@icymatchamochi you can still get two plays a day without purchase and skip to the end of the video', 'Hello, we\'re sorry to hear about this and appreciate you reaching out. To receive your free plays, you will need to scroll to the bottom of the Starbucks for Life page and select the "To enter without making a purchase" link. Once the form has been filled out entirely, those plays will be awarded. Please note that these plays will need to be claimed through your email, and this form will need to be filled out daily to use the free plays option. We hope this helps!', 'This customization sounds like it was mint to be! Let us know what you think if you decide to give it a try.', '@rabody_']</t>
-  </si>
-  <si>
-    <t>['I have all but three!!!!', '', '', "Can't wait to experience our first Xmas frapuccino in our favorite Starbucks next to the beach ", '@ellabella_2580 ', '', '', '\nI want it very much', '', ' Great', 'If there‚Äôs a new location open my up in my city and I‚Äôm one of the first to go, do I get anything?', 'Nobody cares', 'I sent you a DM @starbucks', 'Bring the old Starbucks for life back pls!!!!!', 'Had a Christmas Blend Coffee  @starbucks today it was perfect love it ', 'snowball fights and matching PJs ']</t>
-  </si>
-  <si>
-    <t>['@fatmaonee  We love sharing all your favorites with you!', '@starbucks Thank you ', 'I LOVE STARBUCKS!!! On my way now!!', '@tony_b_aloney_  Thanks for stopping by! ', 'Who would want to drink a chai latte with crunchy leaves?! Yikes!', 'The best drink ', 'Chai means tea. Chai tea=Tea tea', '@mugart.store chai means tea  Chai tea=tea tea', "@m.a.r._majahuita chai means tea bro, you're saying tea tea "]</t>
-  </si>
-  <si>
-    <t>['Is there alcohol on it,right? ', 'This is cute!!!!! ', 'Sign me up ', '@abo_abdullah_saleh the end of what?', 'Yummy', 'Yummy', '@shorookj bruh']</t>
-  </si>
-  <si>
-    <t>['Yes!', '@dr_rehab_hassan_derma yes!!', '@nizahamo Yes!!', '@tony_b_aloney_ may be for u but me No', 'Creative and caffinated: my favorite combination!', 'No pumpkin spice its gross', 'I like always to get a pumpkin spice latte', '', ' spice latte, ', 'Love this .']</t>
-  </si>
-  <si>
-    <t>['', '@karlieejohnsonn You‚Äôre a dummy', '@sarah_belle85 Misogynistic', '@cpcorbin2021 actually no, we have them til january', '@miatakit Good to know ', 'Girl math ', '@the_return_of_the_cat today i went to the starbucks in south philly and it was packed as usual‚Ä¶']</t>
-  </si>
-  <si>
-    <t>['Bad to worse ']</t>
-  </si>
-  <si>
-    <t>['Red cups are great. HOWEVER‚Äî&gt; @starbucks a delightful experience turned undelightful when I saw not once, but twice today, dogs inside the Germantown, MD store. Yes, and one had its paws on the counter.\nAfter a second entry of dogs, (2 dogs) I was completely done; I left. \nThis Starbucks is a busy place. I‚Äôm sure maintaining a healthy environment means a lot. \nTherefore, visitors need to know animals have their place and their place is not in the store. #starbucks', 'NO', 'I like this', '@braboaldair ', 'Awesome ', '@skylermcdermott lol. Yes', '@luz19762023  Which delicious drink is your festive favorite?', 'Cool', '@starbucks after all our talk, I didn‚Äôt get the cup  depressed', '', 'No Hot Chocolate', 'Hope to see you all holiday season, bestie.', 'Looks so yummy huh? ', '@teebabyluv86 they discontinued my toasted white chocolate @starbucks how could you I‚Äôm still mad', 'bring starbucks back to russia']</t>
-  </si>
-  <si>
-    <t>['@starbucks it‚Äôs ok - over a week ago and over gotten at least a dozen drinks since then, so I don‚Äôt remember now‚Ä¶ but it seemed like a waste of money :(', 'Boooooo @starbucks', 'Your Iced Gingerbread latte does not show app in the app under the holiday drinks. Only the hot one does, FYI.', ' my favorite time of the year!', '@rykeeeeeeeer  Will you be sipping through this magical season with us? ', '@starbucks absolutely!!!', '@rykeeeeeeeer ', '', 'BRING BACK IRISH CREAM CB please ', '@starbucks', 'Not buying @starbucks', '', 'Where‚Äôs the Irish cream?  It released previous years with the holiday ones too??']</t>
-  </si>
-  <si>
-    <t>['I‚Äôm WAITING for Pistachio Latte. NOT patiently!!!', 'Its good but its better substituting Chestnut Praline for the Gingerbread. Idea for next year! ', '@linnette_eats The one I had was awesome so I can relate. A lot of weird people posting in these comments. Mostly trolls lol', '', 'So good! Mine tasted more like Chai but I still drank it lol', '@thekalenallen add white mocha to it ', 'I wish they served the way is on the picture because is more  or the cup is not full..', 'My drink tasted like a Gingerbread cookie! Going to get another one today! Hi5@starbucks', "We're happy to hear you enjoyed it, friend!", '', 'It was sooooo good', "We're smiling from ear to ear! "]</t>
-  </si>
-  <si>
-    <t>['', 'What about the gen z', '@nick_melillo27 Millennials order right too I get iced sometimes nothing wrong with that Gen Zers think they wanna correct the millennials with Starbucks orders']</t>
-  </si>
-  <si>
-    <t>['#free', '', 'Yum', 'The chestnut is Dairy free?']</t>
-  </si>
-  <si>
-    <t>["I'm sorry this happened to u girl, Starbucks are awful fr", 'Tipuuuuuu bodoh', 'Amazing ', '@fahada_hamim ']</t>
-  </si>
-  <si>
-    <t>['@itonly_aliner  Cheers to your yummy favorite.', '@kimberlyley17', '@sopgiee yeah I don‚Äôt understand how people don‚Äôt get that lol', 'Yum', 'oh']</t>
-  </si>
-  <si>
-    <t>['das wel warm h√®, ik wil ijs !', '@stef_van_loo ge kunt dienen ook koud vragen e', 'If you‚Äôre broke, just say so ', 'I need to try this', '@lucycoatestrewhitt ', "@martina.fulcoo  We're ready to sip the delicious Caramel Brul√©e Latte with you! ", 'It was so bad this year I don‚Äôt know why', 'Too sweet', "@starbucks why didn't you all make the ceramic ornaments this year for all states? I'm looking for the ceramic ones here in El Paso and can't find them anywhere.  Is the plastic keychain only for this year? I hope so.  I have an entire collection of ceramic ornaments from 2014 and it's sad to see I won't have one for this year.", 'Make this baby permanent ! Or give us the syrup ', '#favourite', 'Yum']</t>
-  </si>
-  <si>
-    <t>['As a ginger fanatic I have to try this ', "@sassykickinin  We hope you'll love it.", '', 'what is an oleato']</t>
-  </si>
-  <si>
-    <t>['@mimi_topaz i like it hot with whip cream! i mainly like iced drinks but this one hot is so good', '@karissa.isabel7 they prob mean like it‚Äôs back in the regular menu,', 'yay ! ', 'Not in Germany   @starbucks', 'Delicious ', 'Hello social media person, please consider why all these people are criticizing the ethics of this company before removing this post too. Might there be something to it? Thank you!', '', 'Yay', '@tojal.coffee ', 'Happy Hanukkah Starbucks', 'My favorite drink during holiday', '', 'Cheers to your holiday favorite!', 'Please make this in the NL! ', 'oh', 'uh oh', '@maria_paula_wilson  you need free Gift card Starbucks talk to me', '', '@catcecita ', '@jake_pulos yaaayy! ', 'Very nice!', '@manmanfattah  Glad you liked it!', 'Where can I get these  Decorations for the cards?']</t>
-  </si>
-  <si>
-    <t>['On my way to grab one', 'why are you being so rude?? she literally just said that locations in seattle are closed there‚Äôs no reason for you talk like that to her', 'i use mine for school every day!!!', 'can we buy these? ', '@starbucks I missed it ugh  guess I have to wait till nnext cut year', 'En Mexico se adelantan demasiado! 10 nov!!!', 'MERRY CHIRTMAS', 'oh']</t>
-  </si>
-  <si>
-    <t>['', '', 'Tasty', 'Y‚Äôall suck and u know it', "@mizukigamer2002  Glad you're enjoying it.", '@gracevbosch5  So much love for this festive sip!', 'Does this actually taste like a sugar cookie']</t>
-  </si>
-  <si>
-    <t>['ƒ∞ love drinks with whipped cream on the top', '@mizukigamer2002  It makes it so special! ', '@alondra_p3ch  i missed it this year ', '', '', '']</t>
-  </si>
-  <si>
-    <t>['@sunshine_and_lupine ', 'Starbucks isn‚Äôt it time for the Christmas game?  We anxiously await. ', 'Starbucks For Life starts today!  Earn game plays by completing challenges at www.starbucksforlife.com', ' cute']</t>
-  </si>
-  <si>
-    <t>['See you soon Vicki!!! God willing  Dec 1 ~ going to SSC', 'I HOPE MORE PEOPLE STOP DRINKING STARBUCKS', 'Vicky', '@kiimberyly bruh', '@sannamarin']</t>
-  </si>
-  <si>
-    <t>['@dritan_cafe ', 'THIS IS SO CUTE', '@luisafertiradog  We hope you give this cute and delicious drink a try! ', 'my favorite', '@emerson.sours  Such a yummy favorite, bestie! ', '@audrey_dezur  Cheers to your festive favorite!', 'New holiday favorite!! ', 'The gingerbread chai is amazing! Please keep it!', "@huskeytaylor  We're happy you're enjoying this sip of the season!", '@the_mrsnewbury  Cheers to new holiday favorites! ', 'The Irish cream was my main winter drink  heard it‚Äôs not on the winter menu this year', 'Does dis have caffeine', 'I love it', '@silvereyes0901 I did this other day added 3 pumps to my venti', '@weallwegot86  Hi there! Yes, this beverage is caffeinated with Chai.']</t>
-  </si>
-  <si>
-    <t>['@mustafa_ozkaymak1 ', '@hailadams ', '@beauty.in.ordinarythings ', '@jcasper99 ', 'Makes me think of my childhood ', 'So cute ', '@sami.kakish.10  Totally! ', 'Drove all the way to town just to go to Starbucks for yay day to use some rewards point points and then the entire store in the drive-through was closed. Not even the mobile order was open. Extremely disappointed. Tried to talk to someone on chat for over an hour and the representatives kept disconnecting me. After 25+ years of Starbucks I‚Äôm quitting them once I use up my points &amp; $. I‚Äôm done with @starbucks!', '', 'Clowns']</t>
   </si>
 </sst>
 </file>
@@ -1669,8 +1570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="E199" sqref="E199"/>
+    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="E199" sqref="A199:XFD229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1682,1570 +1583,1570 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B6" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B8" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B9" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B10" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B11" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B12" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B13" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B14" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B15" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B16" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B17" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B18" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B19" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B20" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B21" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B22" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B23" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B24" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B25" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B26" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B27" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B28" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B29" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B30" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B31" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B32" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B33" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B34" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B35" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B36" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B37" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B38" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B39" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B40" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B41" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B42" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B43" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B44" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B45" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B46" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B47" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B48" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B49" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B50" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B51" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B52" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B53" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B54" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B55" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B56" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B57" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B58" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B59" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B60" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B61" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B62" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B63" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B64" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B65" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B66" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B67" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B68" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B69" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B70" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B71" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B72" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B73" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B74" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B75" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B76" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B77" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B78" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B79" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B80" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B81" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B82" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B83" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B84" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B85" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B86" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B87" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B88" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B89" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B90" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B91" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B92" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B93" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B95" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B96" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B97" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B98" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B99" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B100" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B101" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B102" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B103" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B104" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B105" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B106" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B107" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B108" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B109" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B110" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B111" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B112" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B113" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B114" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B115" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B116" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B117" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B118" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B119" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B120" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B121" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B122" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B123" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B124" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B125" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B126" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B127" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B128" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B129" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B130" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B131" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B132" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B133" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B134" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B135" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B136" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B137" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B138" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B139" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B140" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B141" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B142" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B143" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B144" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B145" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B146" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B147" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B148" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B149" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B150" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B151" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B152" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B153" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B154" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B155" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B156" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B157" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B158" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B159" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B160" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B161" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B162" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B163" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B164" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B165" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B166" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B167" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B168" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B169" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B170" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B171" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B172" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B173" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B174" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B176" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B177" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B178" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B179" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B180" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B181" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B182" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B183" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B184" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B185" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B186" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B187" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B188" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B189" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B190" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B191" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B192" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B193" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B194" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B195" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B197" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
@@ -3257,252 +3158,97 @@
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A199" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B199" t="s">
-        <v>4</v>
-      </c>
+      <c r="A199" s="1"/>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A200" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B200" t="s">
-        <v>6</v>
-      </c>
+      <c r="A200" s="1"/>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A201" s="2">
-        <v>45224</v>
-      </c>
-      <c r="B201" t="s">
-        <v>406</v>
-      </c>
+      <c r="A201" s="2"/>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A202" s="2">
-        <v>45225</v>
-      </c>
-      <c r="B202" t="s">
-        <v>407</v>
-      </c>
+      <c r="A202" s="2"/>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A203" s="2">
-        <v>45226</v>
-      </c>
-      <c r="B203" t="s">
-        <v>408</v>
-      </c>
+      <c r="A203" s="2"/>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A204" s="2">
-        <v>45229</v>
-      </c>
-      <c r="B204" t="s">
-        <v>409</v>
-      </c>
+      <c r="A204" s="2"/>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A205" s="2">
-        <v>45230</v>
-      </c>
-      <c r="B205" t="s">
-        <v>410</v>
-      </c>
+      <c r="A205" s="2"/>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A206" s="2">
-        <v>45231</v>
-      </c>
-      <c r="B206" t="s">
-        <v>411</v>
-      </c>
+      <c r="A206" s="2"/>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A207" s="2">
-        <v>45232</v>
-      </c>
-      <c r="B207" t="s">
-        <v>412</v>
-      </c>
+      <c r="A207" s="2"/>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A208" s="2">
-        <v>45233</v>
-      </c>
-      <c r="B208" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A209" s="2">
-        <v>45234</v>
-      </c>
-      <c r="B209" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A210" s="2">
-        <v>45236</v>
-      </c>
-      <c r="B210" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A211" s="2">
-        <v>45237</v>
-      </c>
-      <c r="B211" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A212" s="2">
-        <v>45238</v>
-      </c>
-      <c r="B212" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A213" s="2">
-        <v>45240</v>
-      </c>
-      <c r="B213" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A214" s="2">
-        <v>45243</v>
-      </c>
-      <c r="B214" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A215" s="2">
-        <v>45244</v>
-      </c>
-      <c r="B215" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A216" s="2">
-        <v>45245</v>
-      </c>
-      <c r="B216" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A217" s="2">
-        <v>45246</v>
-      </c>
-      <c r="B217" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A218" s="2">
-        <v>45247</v>
-      </c>
-      <c r="B218" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A219" s="2">
-        <v>45250</v>
-      </c>
-      <c r="B219" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A220" s="2">
-        <v>45251</v>
-      </c>
-      <c r="B220" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A221" s="2">
-        <v>45252</v>
-      </c>
-      <c r="B221" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A222" s="2">
-        <v>45254</v>
-      </c>
-      <c r="B222" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A223" s="2">
-        <v>45255</v>
-      </c>
-      <c r="B223" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A224" s="2">
-        <v>45257</v>
-      </c>
-      <c r="B224" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A225" s="2">
-        <v>45258</v>
-      </c>
-      <c r="B225" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A226" s="2">
-        <v>45259</v>
-      </c>
-      <c r="B226" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A227" s="2">
-        <v>45260</v>
-      </c>
-      <c r="B227" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A228" s="2">
-        <v>45261</v>
-      </c>
-      <c r="B228" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A229" s="2">
-        <v>45262</v>
-      </c>
-      <c r="B229" t="s">
-        <v>405</v>
-      </c>
+      <c r="A208" s="2"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209" s="2"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210" s="2"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211" s="2"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212" s="2"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213" s="2"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214" s="2"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215" s="2"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216" s="2"/>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217" s="2"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218" s="2"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219" s="2"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220" s="2"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221" s="2"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222" s="2"/>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223" s="2"/>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224" s="2"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225" s="2"/>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226" s="2"/>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227" s="2"/>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228" s="2"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B200">
